--- a/Checklist_Especificacao_do_Projeto_WheyMarket.xlsx
+++ b/Checklist_Especificacao_do_Projeto_WheyMarket.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bae0558f66a8d9ce/Ambiente de Trabalho/PUC/Quarto Periodo/Qualidade de Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC586BD5-D544-40A4-8AF9-3BB369555184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{789FB5D8-09C1-482E-84D0-6F919FF8615C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{441F8DAE-D891-44C7-A774-9E6A3F97909F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{441F8DAE-D891-44C7-A774-9E6A3F97909F}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
   <si>
     <t xml:space="preserve">CHECKLIST DE VERIFICAÇÃO - RELAÇÃO DE ARTEFATOS 
 ESPECIFICAÇÃO DO PROJETO </t>
@@ -271,6 +271,10 @@
   </si>
   <si>
     <t>CHECKLIST DE VERIFICAÇÃO - RELAÇÃO DE NÃO CONFORMIDADES</t>
+  </si>
+  <si>
+    <t>Leonardo Klein
+Eduardo Moura</t>
   </si>
 </sst>
 </file>
@@ -280,7 +284,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,24 +745,24 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" style="8" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="11" max="11" width="32.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="33.88671875" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="11" max="11" width="32.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="39" customHeight="1">
+    <row r="1" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -776,7 +780,7 @@
       </c>
       <c r="L1" s="16"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,7 +812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30">
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -819,8 +823,12 @@
         <v>14</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
@@ -834,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30">
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -845,8 +853,12 @@
         <v>19</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="E4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
@@ -860,7 +872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30">
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -871,8 +883,12 @@
         <v>24</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="H5" s="6" t="s">
         <v>25</v>
       </c>
@@ -886,7 +902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="60">
+    <row r="6" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -897,8 +913,12 @@
         <v>29</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="H6" s="6" t="s">
         <v>30</v>
       </c>
@@ -912,7 +932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30">
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -923,8 +943,12 @@
         <v>34</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="H7" s="6" t="s">
         <v>35</v>
       </c>
@@ -938,7 +962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45">
+    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>3</v>
       </c>
@@ -949,8 +973,12 @@
         <v>39</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="H8" s="6" t="s">
         <v>40</v>
       </c>
@@ -964,7 +992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="75">
+    <row r="9" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -975,8 +1003,12 @@
         <v>44</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="K9" s="7" t="s">
         <v>45</v>
       </c>
@@ -984,7 +1016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="60">
+    <row r="10" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
         <v>46</v>
@@ -993,8 +1025,12 @@
         <v>47</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>48</v>
       </c>
@@ -1005,7 +1041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30">
+    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -1016,14 +1052,18 @@
         <v>51</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="H11" s="4" t="e">
         <f>COUNTIF(D3:D27,"SIM")/(COUNTIF(D3:D27,"SIM") +COUNTIF(D3:D27,"NÃO"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="45">
+    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -1034,10 +1074,14 @@
         <v>53</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" ht="45">
+      <c r="E12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>4</v>
       </c>
@@ -1048,10 +1092,14 @@
         <v>55</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" ht="30">
+      <c r="E13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>4</v>
       </c>
@@ -1062,10 +1110,14 @@
         <v>57</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" ht="45">
+      <c r="E14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>4</v>
       </c>
@@ -1076,10 +1128,14 @@
         <v>59</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" ht="75">
+      <c r="E15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>5</v>
       </c>
@@ -1090,10 +1146,14 @@
         <v>61</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="60">
+      <c r="E16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>5</v>
       </c>
@@ -1104,10 +1164,14 @@
         <v>63</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="E17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>6</v>
       </c>
@@ -1118,10 +1182,14 @@
         <v>65</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="90">
+      <c r="E18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>6</v>
       </c>
@@ -1132,10 +1200,14 @@
         <v>67</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" ht="45">
+      <c r="E19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>6</v>
       </c>
@@ -1146,10 +1218,14 @@
         <v>69</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" ht="30">
+      <c r="E20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>7</v>
       </c>
@@ -1160,10 +1236,14 @@
         <v>71</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" ht="60">
+      <c r="E21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>7</v>
       </c>
@@ -1174,10 +1254,14 @@
         <v>73</v>
       </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="E22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>8</v>
       </c>
@@ -1188,10 +1272,14 @@
         <v>74</v>
       </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" ht="30">
+      <c r="E23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>8</v>
       </c>
@@ -1202,8 +1290,12 @@
         <v>75</v>
       </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="E24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1231,17 +1323,17 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>76</v>
       </c>
